--- a/myapp/data.xlsx
+++ b/myapp/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="4"/>
-    <sheet name="boards" r:id="rId7" sheetId="5"/>
-    <sheet name="projects" r:id="rId5" sheetId="6"/>
+    <sheet name="users" r:id="rId6" sheetId="7"/>
+    <sheet name="boards" r:id="rId7" sheetId="8"/>
+    <sheet name="projects" r:id="rId5" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="59">
   <si>
     <t>no</t>
   </si>
@@ -233,7 +233,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -348,7 +348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -463,7 +463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/myapp/data.xlsx
+++ b/myapp/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="7"/>
-    <sheet name="boards" r:id="rId7" sheetId="8"/>
-    <sheet name="projects" r:id="rId5" sheetId="9"/>
+    <sheet name="users" r:id="rId6" sheetId="10"/>
+    <sheet name="boards" r:id="rId7" sheetId="11"/>
+    <sheet name="projects" r:id="rId5" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="59">
   <si>
     <t>no</t>
   </si>
@@ -233,7 +233,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -348,7 +348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -463,7 +463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F4"/>
   <sheetViews>
